--- a/biology/Botanique/Chasmogamie/Chasmogamie.xlsx
+++ b/biology/Botanique/Chasmogamie/Chasmogamie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chasmogamie (formé à partir des mots grecs χάσμα / kháasma, « ouverture béante », et γάμος / gámos, mariage), désigne la caractéristique de certaines espèces de plantes de se reproduire avec une reproduction sexuée, par la pollinisation croisée. C'est la caractéristique de base des plantes allogames.
 Le contraire de la chasmogamie est la cléistogamie (formé à partir des mots grecs κλειστός /  kleistós, fermé, et γάμος / gámos, mariage), indiquant une « fleur fermée », qui implique une autopollinisation automatique. C'est la caractéristique de base des plantes autogames (parmi lesquelles la majorité des graminées).
